--- a/Retail Brands/LULU_MODEL.xlsx
+++ b/Retail Brands/LULU_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA4CD5F-F246-427F-8ABF-27C705F29833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04F758-D900-4FCA-BED8-1E0EBABC9140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>Price</t>
   </si>
@@ -366,51 +366,6 @@
     <t>Lululemon (LULU)</t>
   </si>
   <si>
-    <t>Victoria’s Secret (VSCO)</t>
-  </si>
-  <si>
-    <t>Aritzia (ATZ.TO)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.17</t>
-    </r>
-  </si>
-  <si>
-    <t>~0.17</t>
-  </si>
-  <si>
-    <t>H&amp;M (HM B / HNNMY)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>22.2</t>
-    </r>
-  </si>
-  <si>
-    <t>~0.94</t>
-  </si>
-  <si>
     <t>Price/Sales</t>
   </si>
   <si>
@@ -514,6 +469,15 @@
   </si>
   <si>
     <t>Shares outstanding</t>
+  </si>
+  <si>
+    <t>ATZ.TO (Aritzia)*</t>
+  </si>
+  <si>
+    <t>H&amp;M (STO:HM.B)*</t>
+  </si>
+  <si>
+    <t>Victorias Secret (VSCO)</t>
   </si>
 </sst>
 </file>
@@ -523,13 +487,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -715,58 +685,74 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1106,7 +1092,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1202,7 +1188,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>2.2999999999999998</v>
@@ -1210,7 +1196,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1">
         <v>5.78</v>
@@ -1218,7 +1204,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>2.42</v>
@@ -1226,7 +1212,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
         <v>8.74</v>
@@ -1234,7 +1220,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
         <v>13.8</v>
@@ -1242,7 +1228,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -1258,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1286,134 +1272,134 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AE2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AF2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="27" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:36" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1508,92 +1494,95 @@
       <c r="AF4" s="3">
         <v>2371</v>
       </c>
-      <c r="AG4" s="4"/>
+      <c r="AG4" s="4">
+        <f xml:space="preserve"> 2371 * 1.07</f>
+        <v>2536.9700000000003</v>
+      </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26">
         <v>305</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>327.3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>340.9</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>498.9</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>360.6</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <v>397.6</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <v>411.1</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>586.70000000000005</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <v>317.60000000000002</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <v>413.4</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="26">
         <v>490.1</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="26">
         <v>716.8</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="26">
         <v>526.20000000000005</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <v>608</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="26">
         <v>621</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="26">
         <v>893</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="26">
         <v>743</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="26">
         <v>813</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="27">
         <v>818</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="27">
         <v>1244</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="27">
         <v>850</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="27">
         <v>911</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="27">
         <v>948</v>
       </c>
       <c r="AA5" s="1">
         <v>1302</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="27">
         <v>934</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="27">
         <v>959</v>
       </c>
       <c r="AD5" s="1">
@@ -1730,12 +1719,12 @@
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2536.9700000000003</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="17"/>
@@ -1867,92 +1856,92 @@
         <v>416.49999999999994</v>
       </c>
       <c r="L8" s="4">
-        <f>L6-SUM(L7:L7)</f>
+        <f t="shared" ref="L8:AG8" si="4">L6-SUM(L7:L7)</f>
         <v>34.799999999999955</v>
       </c>
       <c r="M8" s="4">
-        <f>M6-SUM(M7:M7)</f>
+        <f t="shared" si="4"/>
         <v>136.60000000000002</v>
       </c>
       <c r="N8" s="4">
-        <f>N6-SUM(N7:N7)</f>
+        <f t="shared" si="4"/>
         <v>215.60000000000008</v>
       </c>
       <c r="O8" s="4">
-        <f>O6-SUM(O7:O7)</f>
+        <f t="shared" si="4"/>
         <v>467.90000000000009</v>
       </c>
       <c r="P8" s="4">
-        <f>P6-SUM(P7:P7)</f>
+        <f t="shared" si="4"/>
         <v>203.69999999999993</v>
       </c>
       <c r="Q8" s="4">
-        <f>Q6-SUM(Q7:Q7)</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="R8" s="4">
-        <f>R6-SUM(R7:R7)</f>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="S8" s="4">
-        <f>S6-SUM(S7:S7)</f>
+        <f t="shared" si="4"/>
         <v>594</v>
       </c>
       <c r="T8" s="4">
-        <f>T6-SUM(T7:T7)</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="U8" s="4">
-        <f>U6-SUM(U7:U7)</f>
+        <f t="shared" si="4"/>
         <v>393</v>
       </c>
       <c r="V8" s="4">
-        <f>V6-SUM(V7:V7)</f>
+        <f t="shared" si="4"/>
         <v>355</v>
       </c>
       <c r="W8" s="4">
-        <f>W6-SUM(W7:W7)</f>
+        <f t="shared" si="4"/>
         <v>725</v>
       </c>
       <c r="X8" s="4">
-        <f>X6-SUM(X7:X7)</f>
+        <f t="shared" si="4"/>
         <v>403</v>
       </c>
       <c r="Y8" s="4">
-        <f>Y6-SUM(Y7:Y7)</f>
+        <f t="shared" si="4"/>
         <v>481</v>
       </c>
       <c r="Z8" s="4">
-        <f>Z6-SUM(Z7:Z7)</f>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="AA8" s="4">
-        <f>AA6-SUM(AA7:AA7)</f>
+        <f t="shared" si="4"/>
         <v>913</v>
       </c>
       <c r="AB8" s="4">
-        <f>AB6-SUM(AB7:AB7)</f>
+        <f t="shared" si="4"/>
         <v>433</v>
       </c>
       <c r="AC8" s="4">
-        <f>AC6-SUM(AC7:AC7)</f>
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="AD8" s="4">
-        <f>AD6-SUM(AD7:AD7)</f>
+        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="AE8" s="4">
-        <f>AE6-SUM(AE7:AE7)</f>
+        <f t="shared" si="4"/>
         <v>1043</v>
       </c>
       <c r="AF8" s="4">
-        <f>AF6-SUM(AF7:AF7)</f>
+        <f t="shared" si="4"/>
         <v>440</v>
       </c>
       <c r="AG8" s="4">
-        <f>AG6-SUM(AG7:AG7)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2536.9700000000003</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -2013,31 +2002,31 @@
       <c r="U9" s="1">
         <v>401</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="27">
         <v>353</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="27">
         <v>318</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="27">
         <v>409</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="27">
         <v>487</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="27">
         <v>348</v>
       </c>
       <c r="AA9" s="1">
         <v>932</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="27">
         <v>456</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="27">
         <v>558</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="27">
         <v>504</v>
       </c>
       <c r="AE9" s="1">
@@ -2105,31 +2094,31 @@
       <c r="U10" s="1">
         <v>112</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="27">
         <v>97</v>
       </c>
-      <c r="W10" s="29">
+      <c r="W10" s="27">
         <v>198</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="27">
         <v>119</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="27">
         <v>145</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="27">
         <v>99</v>
       </c>
       <c r="AA10" s="1">
         <v>262</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="27">
         <v>135</v>
       </c>
       <c r="AC10" s="1">
         <v>165</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AD10" s="27">
         <v>152</v>
       </c>
       <c r="AE10" s="1">
@@ -2144,115 +2133,115 @@
         <v>12</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:K11" si="4">D9-D10</f>
+        <f t="shared" ref="D11:K11" si="5">D9-D10</f>
         <v>75.099999999999994</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.800000000000011</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.4</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>218.5</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96.6</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125.00000000000001</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126.00000000000001</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>298</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:AE11" si="5">L9-L10</f>
+        <f t="shared" ref="L11:AE11" si="6">L9-L10</f>
         <v>28.599999999999998</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86.8</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143.60000000000002</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>329.8</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>144.9</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>435</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>290</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
       <c r="AA11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>670</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>321</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>749</v>
       </c>
       <c r="AF11" s="5">
@@ -2268,95 +2257,95 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>0.71</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="28">
         <v>0.71</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="28">
         <v>1.66</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="28">
         <v>0.74</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <v>0.97</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="28">
         <v>0.96</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="28">
         <v>2.29</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="28">
         <v>0.22</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="28">
         <v>0.67</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="28">
         <v>2.5299999999999998</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="28">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="28">
         <v>1.6</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="28">
         <v>1.45</v>
       </c>
-      <c r="S12" s="30">
+      <c r="S12" s="28">
         <v>3.37</v>
       </c>
-      <c r="T12" s="30">
+      <c r="T12" s="28">
         <v>1.48</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="28">
         <v>2.27</v>
       </c>
-      <c r="V12" s="30">
+      <c r="V12" s="28">
         <v>2</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="28">
         <v>0.94</v>
       </c>
-      <c r="X12" s="30">
+      <c r="X12" s="28">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Y12" s="30">
+      <c r="Y12" s="28">
         <v>2.69</v>
       </c>
-      <c r="Z12" s="30">
+      <c r="Z12" s="28">
         <v>1.97</v>
       </c>
       <c r="AA12" s="1">
         <v>5.3</v>
       </c>
-      <c r="AB12" s="30">
+      <c r="AB12" s="28">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AC12" s="30">
+      <c r="AC12" s="28">
         <v>3.15</v>
       </c>
-      <c r="AD12" s="30">
+      <c r="AD12" s="28">
         <v>2.87</v>
       </c>
-      <c r="AE12" s="30">
+      <c r="AE12" s="28">
         <v>6.16</v>
       </c>
       <c r="AF12" s="1">
         <v>2.61</v>
       </c>
-      <c r="AG12" s="30"/>
+      <c r="AG12" s="28"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -2425,22 +2414,22 @@
       <c r="X13" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="27">
         <v>2.68</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="27">
         <v>1.96</v>
       </c>
       <c r="AA13" s="1">
         <v>5.29</v>
       </c>
-      <c r="AB13" s="29">
+      <c r="AB13" s="27">
         <v>2.54</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13" s="27">
         <v>3.15</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="27">
         <v>2.87</v>
       </c>
       <c r="AE13" s="1">
@@ -2450,125 +2439,125 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="34">
-        <f t="shared" ref="H15:O15" si="6">(H4/D4) - 1</f>
+      <c r="H15" s="32">
+        <f t="shared" ref="H15:O15" si="7">(H4/D4) - 1</f>
         <v>0.20409419732184064</v>
       </c>
-      <c r="I15" s="34">
-        <f t="shared" si="6"/>
+      <c r="I15" s="32">
+        <f t="shared" si="7"/>
         <v>0.22100898410504488</v>
       </c>
-      <c r="J15" s="34">
-        <f t="shared" si="6"/>
+      <c r="J15" s="32">
+        <f t="shared" si="7"/>
         <v>0.22522402032900901</v>
       </c>
-      <c r="K15" s="34">
-        <f t="shared" si="6"/>
+      <c r="K15" s="32">
+        <f t="shared" si="7"/>
         <v>0.19700214132762306</v>
       </c>
-      <c r="L15" s="34">
-        <f t="shared" si="6"/>
+      <c r="L15" s="32">
+        <f t="shared" si="7"/>
         <v>-0.16656014316758272</v>
       </c>
-      <c r="M15" s="34">
-        <f t="shared" si="6"/>
+      <c r="M15" s="32">
+        <f t="shared" si="7"/>
         <v>2.2073805750509434E-2</v>
       </c>
-      <c r="N15" s="34">
-        <f t="shared" si="6"/>
+      <c r="N15" s="32">
+        <f t="shared" si="7"/>
         <v>0.2197358366990505</v>
       </c>
-      <c r="O15" s="34">
-        <f t="shared" si="6"/>
+      <c r="O15" s="32">
+        <f t="shared" si="7"/>
         <v>0.23756708407871208</v>
       </c>
-      <c r="P15" s="34">
-        <f>(P4/L4) - 1</f>
+      <c r="P15" s="32">
+        <f t="shared" ref="P15:AG15" si="8">(P4/L4) - 1</f>
         <v>0.88113496932515334</v>
       </c>
-      <c r="Q15" s="34">
-        <f>(Q4/M4) - 1</f>
+      <c r="Q15" s="32">
+        <f t="shared" si="8"/>
         <v>0.60704396943183081</v>
       </c>
-      <c r="R15" s="34">
-        <f>(R4/N4) - 1</f>
+      <c r="R15" s="32">
+        <f t="shared" si="8"/>
         <v>0.29765527116520474</v>
       </c>
-      <c r="S15" s="34">
-        <f>(S4/O4) - 1</f>
+      <c r="S15" s="32">
+        <f t="shared" si="8"/>
         <v>0.23099161607400975</v>
       </c>
-      <c r="T15" s="34">
-        <f>(T4/P4) - 1</f>
+      <c r="T15" s="32">
+        <f t="shared" si="8"/>
         <v>0.31512433754586211</v>
       </c>
-      <c r="U15" s="34">
-        <f>(U4/Q4) - 1</f>
+      <c r="U15" s="32">
+        <f t="shared" si="8"/>
         <v>0.28738800827015853</v>
       </c>
-      <c r="V15" s="34">
-        <f>(V4/R4) - 1</f>
+      <c r="V15" s="32">
+        <f t="shared" si="8"/>
         <v>0.28068965517241384</v>
       </c>
-      <c r="W15" s="34">
-        <f>(W4/S4) - 1</f>
+      <c r="W15" s="32">
+        <f t="shared" si="8"/>
         <v>0.30201972757162987</v>
       </c>
-      <c r="X15" s="34">
-        <f>(X4/T4) - 1</f>
+      <c r="X15" s="32">
+        <f t="shared" si="8"/>
         <v>0.24054556726596399</v>
       </c>
-      <c r="Y15" s="34">
-        <f>(Y4/U4) - 1</f>
+      <c r="Y15" s="32">
+        <f t="shared" si="8"/>
         <v>0.18254817987152028</v>
       </c>
-      <c r="Z15" s="34">
-        <f>(Z4/V4) - 1</f>
+      <c r="Z15" s="32">
+        <f t="shared" si="8"/>
         <v>0.18686052773290251</v>
       </c>
-      <c r="AA15" s="34">
-        <f>(AA4/W4) - 1</f>
+      <c r="AA15" s="32">
+        <f t="shared" si="8"/>
         <v>0.15620490620490624</v>
       </c>
-      <c r="AB15" s="34">
-        <f>(AB4/X4) - 1</f>
+      <c r="AB15" s="32">
+        <f t="shared" si="8"/>
         <v>0.10394802598700648</v>
       </c>
-      <c r="AC15" s="34">
-        <f>(AC4/Y4) - 1</f>
+      <c r="AC15" s="32">
+        <f t="shared" si="8"/>
         <v>7.3336351290176571E-2</v>
       </c>
-      <c r="AD15" s="34">
-        <f>(AD4/Z4) - 1</f>
+      <c r="AD15" s="32">
+        <f t="shared" si="8"/>
         <v>8.756805807622503E-2</v>
       </c>
-      <c r="AE15" s="34">
-        <f>(AE4/AA4) - 1</f>
+      <c r="AE15" s="32">
+        <f t="shared" si="8"/>
         <v>0.12667706708268334</v>
       </c>
-      <c r="AF15" s="34">
-        <f>(AF4/AB4) - 1</f>
+      <c r="AF15" s="32">
+        <f t="shared" si="8"/>
         <v>7.3336351290176571E-2</v>
       </c>
-      <c r="AG15" s="34">
-        <f>(AG4/AC4) - 1</f>
-        <v>-1</v>
+      <c r="AG15" s="32">
+        <f t="shared" si="8"/>
+        <v>7.0000000000000062E-2</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -2579,120 +2568,120 @@
         <v>45</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" ref="E16:L16" si="7" xml:space="preserve"> (E4/D4) - 1</f>
+        <f t="shared" ref="E16:L16" si="9" xml:space="preserve"> (E4/D4) - 1</f>
         <v>0.11359088810220097</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3448514167242704E-2</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.56145512906245809</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.32993576017130621</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12923430908858502</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7016074258546583E-2</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.52548848378997914</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.53345259391771016</v>
       </c>
       <c r="M16" s="6">
-        <f xml:space="preserve"> (M4/L4) - 1</f>
+        <f t="shared" ref="M16:AG16" si="10" xml:space="preserve"> (M4/L4) - 1</f>
         <v>0.38481595092024534</v>
       </c>
       <c r="N16" s="6">
-        <f xml:space="preserve"> (N4/M4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.23756783696976425</v>
       </c>
       <c r="O16" s="6">
-        <f xml:space="preserve"> (O4/N4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.54778951136567011</v>
       </c>
       <c r="P16" s="6">
-        <f xml:space="preserve"> (P4/O4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-0.29083550159005489</v>
       </c>
       <c r="Q16" s="6">
-        <f xml:space="preserve"> (Q4/P4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.18304117407256415</v>
       </c>
       <c r="R16" s="6">
-        <f xml:space="preserve"> (R4/Q4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-6.8917987594763197E-4</v>
       </c>
       <c r="S16" s="6">
-        <f xml:space="preserve"> (S4/R4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.46827586206896554</v>
       </c>
       <c r="T16" s="6">
-        <f xml:space="preserve"> (T4/S4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-0.24236730859558475</v>
       </c>
       <c r="U16" s="6">
-        <f xml:space="preserve"> (U4/T4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.15809051456912582</v>
       </c>
       <c r="V16" s="6">
-        <f xml:space="preserve"> (V4/U4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-5.8886509635974749E-3</v>
       </c>
       <c r="W16" s="6">
-        <f xml:space="preserve"> (W4/V4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.49273021001615502</v>
       </c>
       <c r="X16" s="6">
-        <f xml:space="preserve"> (X4/W4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-0.27813852813852813</v>
       </c>
       <c r="Y16" s="6">
-        <f xml:space="preserve"> (Y4/X4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.10394802598700648</v>
       </c>
       <c r="Z16" s="6">
-        <f xml:space="preserve"> (Z4/Y4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-2.2634676324128078E-3</v>
       </c>
       <c r="AA16" s="6">
-        <f xml:space="preserve"> (AA4/Z4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.45417422867513602</v>
       </c>
       <c r="AB16" s="6">
-        <f xml:space="preserve"> (AB4/AA4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-0.31076443057722314</v>
       </c>
       <c r="AC16" s="6">
-        <f xml:space="preserve"> (AC4/AB4) - 1</f>
+        <f t="shared" si="10"/>
         <v>7.3336351290176571E-2</v>
       </c>
       <c r="AD16" s="6">
-        <f xml:space="preserve"> (AD4/AC4) - 1</f>
+        <f t="shared" si="10"/>
         <v>1.0965837199493844E-2</v>
       </c>
       <c r="AE16" s="6">
-        <f xml:space="preserve"> (AE4/AD4) - 1</f>
+        <f t="shared" si="10"/>
         <v>0.50646641635377554</v>
       </c>
       <c r="AF16" s="6">
-        <f xml:space="preserve"> (AF4/AE4) - 1</f>
+        <f t="shared" si="10"/>
         <v>-0.34339518139019665</v>
       </c>
       <c r="AG16" s="6">
-        <f xml:space="preserve"> (AG4/AF4) - 1</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>7.0000000000000062E-2</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
@@ -2896,83 +2885,83 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:33" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29">
         <v>35.799999999999997</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="29">
         <v>174.2</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>106.8</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="29">
         <v>425.9</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <v>-62.8</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="29">
         <v>112.8</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="29">
         <v>45.1</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="29">
         <v>574.20000000000005</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <v>-121.2</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="29">
         <v>181.3</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="29">
         <v>25.3</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="29">
         <v>717.9</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="29">
         <v>214.1</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="29">
         <v>285.7</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="29">
         <v>158.4</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="29">
         <v>731</v>
       </c>
-      <c r="T21" s="31">
+      <c r="T21" s="29">
         <v>-243.3</v>
       </c>
-      <c r="U21" s="31">
+      <c r="U21" s="29">
         <v>97.6</v>
       </c>
-      <c r="V21" s="32">
+      <c r="V21" s="30">
         <v>65.8</v>
       </c>
-      <c r="W21" s="32">
+      <c r="W21" s="30">
         <v>1046.3</v>
       </c>
-      <c r="X21" s="32">
+      <c r="X21" s="30">
         <v>45.5</v>
       </c>
-      <c r="Y21" s="32">
+      <c r="Y21" s="30">
         <v>476.7</v>
       </c>
-      <c r="Z21" s="32">
+      <c r="Z21" s="30">
         <v>389.9</v>
       </c>
-      <c r="AA21" s="32">
+      <c r="AA21" s="30">
         <v>1384.1</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AB21" s="30">
         <v>127.5</v>
       </c>
       <c r="AC21" s="8">
@@ -2989,86 +2978,86 @@
       </c>
     </row>
     <row r="22" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26">
         <v>-34.299999999999997</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
         <v>-49.7</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="26">
         <v>-72.7</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="26">
         <v>-69.099999999999994</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="26">
         <v>-68.400000000000006</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="26">
         <v>-67.3</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="26">
         <v>-78.5</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="26">
         <v>-68.8</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="26">
         <v>-52.1</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="26">
         <v>-52.6</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="26">
         <v>-66.099999999999994</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="26">
         <v>-58.4</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="26">
         <v>-64.2</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <v>-80.3</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="26">
         <v>-122.5</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="26">
         <v>-127.5</v>
       </c>
-      <c r="T22" s="28">
+      <c r="T22" s="26">
         <v>-111.4</v>
       </c>
-      <c r="U22" s="28">
+      <c r="U22" s="26">
         <v>-144.69999999999999</v>
       </c>
-      <c r="V22" s="29">
+      <c r="V22" s="27">
         <v>-175.6</v>
       </c>
-      <c r="W22" s="29">
+      <c r="W22" s="27">
         <v>-207</v>
       </c>
-      <c r="X22" s="29">
+      <c r="X22" s="27">
         <v>-136.9</v>
       </c>
-      <c r="Y22" s="29">
+      <c r="Y22" s="27">
         <v>-145.5</v>
       </c>
-      <c r="Z22" s="29">
+      <c r="Z22" s="27">
         <v>-162.9</v>
       </c>
-      <c r="AA22" s="29">
+      <c r="AA22" s="27">
         <v>-206.5</v>
       </c>
-      <c r="AB22" s="29">
+      <c r="AB22" s="27">
         <v>-130.69999999999999</v>
       </c>
-      <c r="AC22" s="29">
+      <c r="AC22" s="27">
         <v>-145.1</v>
       </c>
       <c r="AD22" s="1">
@@ -3082,119 +3071,119 @@
       </c>
     </row>
     <row r="23" spans="2:33" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:K23" si="8">D21-D22</f>
+        <f t="shared" ref="D23:K23" si="11">D21-D22</f>
         <v>70.099999999999994</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>223.89999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>179.5</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>495</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.6000000000000085</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>180.1</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>123.6</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>643</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" ref="L23:AE23" si="9">L21-L22</f>
+        <f t="shared" ref="L23:AE23" si="12">L21-L22</f>
         <v>-69.099999999999994</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>233.9</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>91.399999999999991</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>776.3</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>278.3</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>366</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>280.89999999999998</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>858.5</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-131.9</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>242.29999999999998</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>241.39999999999998</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1253.3</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>182.4</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>622.20000000000005</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>552.79999999999995</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1590.6</v>
       </c>
       <c r="AB23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>258.2</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>588.20000000000005</v>
       </c>
       <c r="AD23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>479.2</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1636.4</v>
       </c>
       <c r="AF23" s="8">
@@ -3207,128 +3196,128 @@
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B24" s="28"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
+      <c r="B24" s="26"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="6" t="e">
-        <f t="shared" ref="E25" si="10">IF(A23=0,IF(E23=0,0,NA()),(E23-A23)/ABS(A23))</f>
+        <f t="shared" ref="E25" si="13">IF(A23=0,IF(E23=0,0,NA()),(E23-A23)/ABS(A23))</f>
         <v>#N/A</v>
       </c>
       <c r="F25" s="6" t="e">
-        <f t="shared" ref="F25:G25" si="11">IF(B23=0,IF(F23=0,0,NA()),(F23-B23)/ABS(B23))</f>
+        <f t="shared" ref="F25:G25" si="14">IF(B23=0,IF(F23=0,0,NA()),(F23-B23)/ABS(B23))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G25" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25" si="12">IF(D23=0,IF(H23=0,0,NA()),(H23-D23)/ABS(D23))</f>
+        <f t="shared" ref="H25" si="15">IF(D23=0,IF(H23=0,0,NA()),(H23-D23)/ABS(D23))</f>
         <v>-0.92011412268188286</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25" si="13">IF(E23=0,IF(I23=0,0,NA()),(I23-E23)/ABS(E23))</f>
+        <f t="shared" ref="I25" si="16">IF(E23=0,IF(I23=0,0,NA()),(I23-E23)/ABS(E23))</f>
         <v>-0.19562304600267971</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25" si="14">IF(F23=0,IF(J23=0,0,NA()),(J23-F23)/ABS(F23))</f>
+        <f t="shared" ref="J25" si="17">IF(F23=0,IF(J23=0,0,NA()),(J23-F23)/ABS(F23))</f>
         <v>-0.31142061281337052</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25" si="15">IF(G23=0,IF(K23=0,0,NA()),(K23-G23)/ABS(G23))</f>
+        <f t="shared" ref="K25" si="18">IF(G23=0,IF(K23=0,0,NA()),(K23-G23)/ABS(G23))</f>
         <v>0.29898989898989897</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25" si="16">IF(H23=0,IF(L23=0,0,NA()),(L23-H23)/ABS(H23))</f>
+        <f t="shared" ref="L25" si="19">IF(H23=0,IF(L23=0,0,NA()),(L23-H23)/ABS(H23))</f>
         <v>-13.339285714285694</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ref="M25" si="17">IF(I23=0,IF(M23=0,0,NA()),(M23-I23)/ABS(I23))</f>
+        <f t="shared" ref="M25" si="20">IF(I23=0,IF(M23=0,0,NA()),(M23-I23)/ABS(I23))</f>
         <v>0.29872293170460862</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25" si="18">IF(J23=0,IF(N23=0,0,NA()),(N23-J23)/ABS(J23))</f>
+        <f t="shared" ref="N25" si="21">IF(J23=0,IF(N23=0,0,NA()),(N23-J23)/ABS(J23))</f>
         <v>-0.26051779935275082</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" ref="O25" si="19">IF(K23=0,IF(O23=0,0,NA()),(O23-K23)/ABS(K23))</f>
+        <f t="shared" ref="O25" si="22">IF(K23=0,IF(O23=0,0,NA()),(O23-K23)/ABS(K23))</f>
         <v>0.20730948678071531</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" ref="P25:AE25" si="20">IF(L23=0,IF(P23=0,0,NA()),(P23-L23)/ABS(L23))</f>
+        <f t="shared" ref="P25:AE25" si="23">IF(L23=0,IF(P23=0,0,NA()),(P23-L23)/ABS(L23))</f>
         <v>5.0274963820549932</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.56477126977340741</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0733041575492344</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.10588689939456403</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-1.4739489759252606</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.33797814207650279</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.14061943752224992</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.45987186953989512</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.3828658074298712</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5678910441601326</v>
       </c>
       <c r="Z25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2899751449875725</v>
       </c>
       <c r="AA25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.26912949812495013</v>
       </c>
       <c r="AB25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.41557017543859637</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-5.4644808743169397E-2</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.1331403762662807</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.8794165723626419E-2</v>
       </c>
       <c r="AF25" s="6">
@@ -3342,7 +3331,7 @@
     </row>
     <row r="27" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA27" s="6">
         <v>0.09</v>
@@ -3365,13 +3354,13 @@
     </row>
     <row r="28" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>45</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AB28" s="6">
         <v>0.11</v>
@@ -3391,7 +3380,7 @@
     </row>
     <row r="29" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Z29" s="6" t="s">
         <v>45</v>
@@ -3417,7 +3406,7 @@
     </row>
     <row r="30" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Z30" s="6" t="s">
         <v>45</v>
@@ -3443,7 +3432,7 @@
     </row>
     <row r="31" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Z31" s="6" t="s">
         <v>45</v>
@@ -3469,7 +3458,7 @@
     </row>
     <row r="32" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Z32" s="6" t="s">
         <v>45</v>
@@ -3495,7 +3484,7 @@
     </row>
     <row r="33" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Z33" s="6" t="s">
         <v>45</v>
@@ -3521,7 +3510,7 @@
     </row>
     <row r="34" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Z34" s="6" t="s">
         <v>45</v>
@@ -3546,7 +3535,7 @@
       </c>
     </row>
     <row r="35" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
+      <c r="B35" s="26"/>
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.2">
@@ -3582,7 +3571,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="12"/>
@@ -3598,14 +3587,14 @@
     <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="AF37" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AP37" s="16"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="AF38" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AG38" s="17"/>
       <c r="AP38" s="16"/>
@@ -3750,7 +3739,7 @@
     <row r="46" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -3843,68 +3832,10 @@
     </row>
     <row r="48" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
       <c r="AF48" s="16"/>
     </row>
     <row r="49" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="37"/>
-      <c r="AE49" s="37"/>
       <c r="AF49" s="16"/>
     </row>
     <row r="50" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3939,18 +3870,6 @@
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="20"/>
-    </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:42" x14ac:dyDescent="0.2">
@@ -4002,433 +3921,433 @@
     </row>
     <row r="55" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="36"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33"/>
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33"/>
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
+      <c r="AO55" s="33"/>
+      <c r="AP55" s="34"/>
     </row>
     <row r="56" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-      <c r="AJ56" s="35"/>
-      <c r="AK56" s="35"/>
-      <c r="AL56" s="35"/>
-      <c r="AM56" s="35"/>
-      <c r="AN56" s="35"/>
-      <c r="AO56" s="35"/>
-      <c r="AP56" s="36"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="33"/>
+      <c r="AI56" s="33"/>
+      <c r="AJ56" s="33"/>
+      <c r="AK56" s="33"/>
+      <c r="AL56" s="33"/>
+      <c r="AM56" s="33"/>
+      <c r="AN56" s="33"/>
+      <c r="AO56" s="33"/>
+      <c r="AP56" s="34"/>
     </row>
     <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
-      <c r="AK57" s="35"/>
-      <c r="AL57" s="35"/>
-      <c r="AM57" s="35"/>
-      <c r="AN57" s="35"/>
-      <c r="AO57" s="35"/>
-      <c r="AP57" s="36"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="33"/>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="33"/>
+      <c r="AK57" s="33"/>
+      <c r="AL57" s="33"/>
+      <c r="AM57" s="33"/>
+      <c r="AN57" s="33"/>
+      <c r="AO57" s="33"/>
+      <c r="AP57" s="34"/>
     </row>
     <row r="58" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="35"/>
-      <c r="AJ58" s="35"/>
-      <c r="AK58" s="35"/>
-      <c r="AL58" s="35"/>
-      <c r="AM58" s="35"/>
-      <c r="AN58" s="35"/>
-      <c r="AO58" s="35"/>
-      <c r="AP58" s="36"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="33"/>
+      <c r="AP58" s="34"/>
     </row>
     <row r="59" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="35"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="36"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33"/>
+      <c r="AI59" s="33"/>
+      <c r="AJ59" s="33"/>
+      <c r="AK59" s="33"/>
+      <c r="AL59" s="33"/>
+      <c r="AM59" s="33"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="34"/>
     </row>
     <row r="60" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="35"/>
-      <c r="AI60" s="35"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="35"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-      <c r="AO60" s="35"/>
-      <c r="AP60" s="36"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="33"/>
+      <c r="AI60" s="33"/>
+      <c r="AJ60" s="33"/>
+      <c r="AK60" s="33"/>
+      <c r="AL60" s="33"/>
+      <c r="AM60" s="33"/>
+      <c r="AN60" s="33"/>
+      <c r="AO60" s="33"/>
+      <c r="AP60" s="34"/>
     </row>
     <row r="61" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="35"/>
-      <c r="AM61" s="35"/>
-      <c r="AN61" s="35"/>
-      <c r="AO61" s="35"/>
-      <c r="AP61" s="36"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="33"/>
+      <c r="AL61" s="33"/>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="33"/>
+      <c r="AO61" s="33"/>
+      <c r="AP61" s="34"/>
     </row>
     <row r="62" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="35"/>
-      <c r="AI62" s="35"/>
-      <c r="AJ62" s="35"/>
-      <c r="AK62" s="35"/>
-      <c r="AL62" s="35"/>
-      <c r="AM62" s="35"/>
-      <c r="AN62" s="35"/>
-      <c r="AO62" s="35"/>
-      <c r="AP62" s="36"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="33"/>
+      <c r="AL62" s="33"/>
+      <c r="AM62" s="33"/>
+      <c r="AN62" s="33"/>
+      <c r="AO62" s="33"/>
+      <c r="AP62" s="34"/>
     </row>
     <row r="63" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
-      <c r="AI63" s="35"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="35"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
-      <c r="AO63" s="35"/>
-      <c r="AP63" s="36"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="33"/>
+      <c r="AL63" s="33"/>
+      <c r="AM63" s="33"/>
+      <c r="AN63" s="33"/>
+      <c r="AO63" s="33"/>
+      <c r="AP63" s="34"/>
     </row>
     <row r="64" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="36"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="33"/>
+      <c r="AI64" s="33"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="33"/>
+      <c r="AM64" s="33"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="34"/>
     </row>
     <row r="65" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
@@ -4554,7 +4473,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4483,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4601,7 +4520,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4614,7 +4533,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4629,16 +4548,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4616,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
         <v>767</v>
@@ -4720,28 +4639,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6AACC-FEA2-4C5B-AF79-59D39A66A975}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>63</v>
       </c>
@@ -4772,51 +4691,49 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="38">
         <v>5.27</v>
       </c>
-      <c r="C2" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="E2" s="25">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F2" s="23">
-        <v>12.4</v>
-      </c>
-      <c r="G2" s="23">
-        <v>11.7</v>
-      </c>
-      <c r="H2" s="23">
-        <v>7.3</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0.38</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="38">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="E2" s="39">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="40">
+        <v>16.5</v>
+      </c>
+      <c r="G2" s="40">
+        <v>15.18</v>
+      </c>
+      <c r="H2" s="40">
+        <v>8.94</v>
+      </c>
+      <c r="I2" s="40">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="35">
         <v>5.03</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="35">
         <v>0.53</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>0.63200000000000001</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="41">
         <v>0.14399999999999999</v>
       </c>
       <c r="F3" s="22">
@@ -4828,251 +4745,305 @@
       <c r="H3" s="22">
         <v>5.6</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="35">
         <v>0.91</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="22">
         <v>15.16</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="35">
         <v>0.88</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="41">
         <v>0.41399999999999998</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="41">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="35">
         <v>8.4</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="35">
         <v>9.1</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="35">
         <v>6.2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="35">
         <v>0.47</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="35">
         <v>6.49</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="35">
         <v>0.41</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="41">
         <v>0.61099999999999999</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="41">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="35">
         <v>19.5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="35">
         <v>14.7</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="35">
         <v>9.4</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="35">
         <v>1.18</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="35">
         <v>5.68</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="35">
         <v>0.45</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="41">
         <v>0.35299999999999998</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="41">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="35">
         <v>16.3</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="35">
         <v>15.5</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="35">
         <v>11</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="35">
         <v>1.24</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="35">
         <v>1.23</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="35">
         <v>0.2</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="41">
         <v>0.59</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="35">
         <v>12.9</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="35">
         <v>13.6</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="35">
         <v>9.6</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="35">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="35">
         <v>10.75</v>
       </c>
       <c r="C8" s="22">
         <v>1.81</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="41">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="35">
         <v>13.3</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="35">
         <v>13.3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="35">
         <v>7.9</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="35">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="23">
-        <v>6.22</v>
-      </c>
-      <c r="C9" s="23">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="35">
+        <v>6.96</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="E9" s="41">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>9.51</v>
+      </c>
+      <c r="G9" s="35">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H9" s="35">
+        <v>7.71</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2.11</v>
+      </c>
+      <c r="C10" s="35">
         <v>0.17</v>
       </c>
-      <c r="D9" s="25">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F9" s="23">
-        <v>9.6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>10.4</v>
-      </c>
-      <c r="H9" s="23">
-        <v>7.4</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.439</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F10" s="23">
-        <v>37</v>
-      </c>
-      <c r="G10" s="23">
-        <v>26.9</v>
-      </c>
-      <c r="H10" s="23">
-        <v>17.3</v>
-      </c>
-      <c r="I10" s="23">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="41">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="E10" s="41">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>19.72</v>
+      </c>
+      <c r="G10" s="35">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H10" s="35">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I10" s="35">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E11" s="25">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>20.9</v>
-      </c>
-      <c r="G11" s="23">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H11" s="23">
-        <v>7.6</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.88</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B11" s="35">
+        <v>24.71</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="D11" s="41">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="E11" s="41">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F11" s="35">
+        <v>23.13</v>
+      </c>
+      <c r="G11" s="35">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H11" s="35">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5080,6 +5051,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -5223,15 +5203,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5239,6 +5210,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5252,14 +5231,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Retail Brands/LULU_MODEL.xlsx
+++ b/Retail Brands/LULU_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04F758-D900-4FCA-BED8-1E0EBABC9140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED56947-C5D3-4667-9DDD-2A1B685F8F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t>Price</t>
   </si>
@@ -478,6 +478,21 @@
   </si>
   <si>
     <t>Victorias Secret (VSCO)</t>
+  </si>
+  <si>
+    <t>Missed a little</t>
+  </si>
+  <si>
+    <t>Guided Down</t>
+  </si>
+  <si>
+    <t>2.470 - 2.5 Billion</t>
+  </si>
+  <si>
+    <t>3-4% growth</t>
+  </si>
+  <si>
+    <t>10.850 - 11 billion</t>
   </si>
 </sst>
 </file>
@@ -487,13 +502,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -572,6 +599,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -685,74 +719,82 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1091,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>195.84</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2">
-        <v>45875</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1136,8 +1178,8 @@
       <c r="B5" s="1">
         <v>121</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="51" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1146,7 +1188,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>23696.639999999999</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1177,7 +1219,7 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>24076.639999999999</v>
+        <v>20345</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1244,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AP78"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView topLeftCell="S24" workbookViewId="0">
+      <selection activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1298,7 @@
     <col min="27" max="29" width="13.140625" style="1" customWidth="1"/>
     <col min="30" max="30" width="18.85546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="14.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="32" max="32" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1264,7 +1306,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1272,134 +1314,134 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
     </row>
     <row r="4" spans="1:36" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1495,94 +1537,93 @@
         <v>2371</v>
       </c>
       <c r="AG4" s="4">
-        <f xml:space="preserve"> 2371 * 1.07</f>
-        <v>2536.9700000000003</v>
+        <v>2525</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25">
         <v>305</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>327.3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>340.9</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>498.9</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>360.6</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>397.6</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>411.1</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>586.70000000000005</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>317.60000000000002</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>413.4</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>490.1</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <v>716.8</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <v>526.20000000000005</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <v>608</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <v>621</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>893</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="25">
         <v>743</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>813</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="26">
         <v>818</v>
       </c>
-      <c r="W5" s="27">
+      <c r="W5" s="26">
         <v>1244</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="26">
         <v>850</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="26">
         <v>911</v>
       </c>
-      <c r="Z5" s="27">
+      <c r="Z5" s="26">
         <v>948</v>
       </c>
       <c r="AA5" s="1">
         <v>1302</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="26">
         <v>934</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="26">
         <v>959</v>
       </c>
       <c r="AD5" s="1">
@@ -1593,6 +1634,9 @@
       </c>
       <c r="AF5" s="1">
         <v>988</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1048</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1719,104 +1763,106 @@
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="2"/>
-        <v>2536.9700000000003</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
         <v>240.4</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>262</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>270.89999999999998</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>337.1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>292.89999999999998</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>317.8</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>329.2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>394.3</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>299.60000000000002</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>352.9</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>411.7</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>544.79999999999995</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>496.6</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>541</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>545</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>642</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="16">
         <v>608</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="16">
         <v>662</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="16">
         <v>684</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="16">
         <v>803</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="16">
         <v>748</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="16">
         <v>817</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="16">
         <f xml:space="preserve"> 843+75</f>
         <v>918</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="16">
         <v>990</v>
       </c>
-      <c r="AB7" s="17">
+      <c r="AB7" s="16">
         <v>842</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="16">
         <v>872</v>
       </c>
-      <c r="AD7" s="17">
+      <c r="AD7" s="16">
         <v>910</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="16">
         <v>1138</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AF7" s="16">
         <v>943</v>
       </c>
-      <c r="AG7" s="17"/>
+      <c r="AG7" s="16">
+        <v>952</v>
+      </c>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1941,7 +1987,7 @@
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="4"/>
-        <v>2536.9700000000003</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -2002,31 +2048,31 @@
       <c r="U9" s="1">
         <v>401</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="26">
         <v>353</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="26">
         <v>318</v>
       </c>
-      <c r="X9" s="27">
+      <c r="X9" s="26">
         <v>409</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="26">
         <v>487</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="26">
         <v>348</v>
       </c>
       <c r="AA9" s="1">
         <v>932</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AB9" s="26">
         <v>456</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AC9" s="26">
         <v>558</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="26">
         <v>504</v>
       </c>
       <c r="AE9" s="1">
@@ -2034,6 +2080,9 @@
       </c>
       <c r="AF9" s="1">
         <v>450</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -2094,31 +2143,31 @@
       <c r="U10" s="1">
         <v>112</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="26">
         <v>97</v>
       </c>
-      <c r="W10" s="27">
+      <c r="W10" s="26">
         <v>198</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="26">
         <v>119</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="26">
         <v>145</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="26">
         <v>99</v>
       </c>
       <c r="AA10" s="1">
         <v>262</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AB10" s="26">
         <v>135</v>
       </c>
       <c r="AC10" s="1">
         <v>165</v>
       </c>
-      <c r="AD10" s="27">
+      <c r="AD10" s="26">
         <v>152</v>
       </c>
       <c r="AE10" s="1">
@@ -2126,6 +2175,9 @@
       </c>
       <c r="AF10" s="1">
         <v>136</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2250,102 +2302,104 @@
       </c>
       <c r="AG11" s="5">
         <f>AG9-AG10</f>
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>0.71</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>0.71</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>1.66</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>0.74</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>0.97</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>0.96</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>2.29</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="27">
         <v>0.22</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <v>0.67</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="27">
         <v>2.5299999999999998</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <v>1.6</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="27">
         <v>1.45</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="27">
         <v>3.37</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="27">
         <v>1.48</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="27">
         <v>2.27</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="27">
         <v>2</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="27">
         <v>0.94</v>
       </c>
-      <c r="X12" s="28">
+      <c r="X12" s="27">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Y12" s="28">
+      <c r="Y12" s="27">
         <v>2.69</v>
       </c>
-      <c r="Z12" s="28">
+      <c r="Z12" s="27">
         <v>1.97</v>
       </c>
       <c r="AA12" s="1">
         <v>5.3</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="27">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AC12" s="28">
+      <c r="AC12" s="27">
         <v>3.15</v>
       </c>
-      <c r="AD12" s="28">
+      <c r="AD12" s="27">
         <v>2.87</v>
       </c>
-      <c r="AE12" s="28">
+      <c r="AE12" s="27">
         <v>6.16</v>
       </c>
       <c r="AF12" s="1">
         <v>2.61</v>
       </c>
-      <c r="AG12" s="28"/>
+      <c r="AG12" s="27">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -2414,22 +2468,22 @@
       <c r="X13" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Y13" s="26">
         <v>2.68</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="Z13" s="26">
         <v>1.96</v>
       </c>
       <c r="AA13" s="1">
         <v>5.29</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AB13" s="26">
         <v>2.54</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AC13" s="26">
         <v>3.15</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="26">
         <v>2.87</v>
       </c>
       <c r="AE13" s="1">
@@ -2438,126 +2492,129 @@
       <c r="AF13" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
+      <c r="AG13" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <f t="shared" ref="H15:O15" si="7">(H4/D4) - 1</f>
         <v>0.20409419732184064</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <f t="shared" si="7"/>
         <v>0.22100898410504488</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="31">
         <f t="shared" si="7"/>
         <v>0.22522402032900901</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <f t="shared" si="7"/>
         <v>0.19700214132762306</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="31">
         <f t="shared" si="7"/>
         <v>-0.16656014316758272</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="31">
         <f t="shared" si="7"/>
         <v>2.2073805750509434E-2</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="31">
         <f t="shared" si="7"/>
         <v>0.2197358366990505</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="31">
         <f t="shared" si="7"/>
         <v>0.23756708407871208</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="31">
         <f t="shared" ref="P15:AG15" si="8">(P4/L4) - 1</f>
         <v>0.88113496932515334</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="31">
         <f t="shared" si="8"/>
         <v>0.60704396943183081</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="31">
         <f t="shared" si="8"/>
         <v>0.29765527116520474</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="31">
         <f t="shared" si="8"/>
         <v>0.23099161607400975</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="31">
         <f t="shared" si="8"/>
         <v>0.31512433754586211</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="31">
         <f t="shared" si="8"/>
         <v>0.28738800827015853</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="31">
         <f t="shared" si="8"/>
         <v>0.28068965517241384</v>
       </c>
-      <c r="W15" s="32">
+      <c r="W15" s="31">
         <f t="shared" si="8"/>
         <v>0.30201972757162987</v>
       </c>
-      <c r="X15" s="32">
+      <c r="X15" s="31">
         <f t="shared" si="8"/>
         <v>0.24054556726596399</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="31">
         <f t="shared" si="8"/>
         <v>0.18254817987152028</v>
       </c>
-      <c r="Z15" s="32">
+      <c r="Z15" s="31">
         <f t="shared" si="8"/>
         <v>0.18686052773290251</v>
       </c>
-      <c r="AA15" s="32">
+      <c r="AA15" s="31">
         <f t="shared" si="8"/>
         <v>0.15620490620490624</v>
       </c>
-      <c r="AB15" s="32">
+      <c r="AB15" s="31">
         <f t="shared" si="8"/>
         <v>0.10394802598700648</v>
       </c>
-      <c r="AC15" s="32">
+      <c r="AC15" s="31">
         <f t="shared" si="8"/>
         <v>7.3336351290176571E-2</v>
       </c>
-      <c r="AD15" s="32">
+      <c r="AD15" s="31">
         <f t="shared" si="8"/>
         <v>8.756805807622503E-2</v>
       </c>
-      <c r="AE15" s="32">
+      <c r="AE15" s="31">
         <f t="shared" si="8"/>
         <v>0.12667706708268334</v>
       </c>
-      <c r="AF15" s="32">
+      <c r="AF15" s="31">
         <f t="shared" si="8"/>
         <v>7.3336351290176571E-2</v>
       </c>
-      <c r="AG15" s="32">
+      <c r="AG15" s="31">
         <f t="shared" si="8"/>
-        <v>7.0000000000000062E-2</v>
+        <v>6.4951497258540769E-2</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -2681,7 +2738,7 @@
       </c>
       <c r="AG16" s="6">
         <f t="shared" si="10"/>
-        <v>7.0000000000000062E-2</v>
+        <v>6.4951497258540769E-2</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
@@ -2788,6 +2845,9 @@
       <c r="AF18" s="6">
         <v>0.57999999999999996</v>
       </c>
+      <c r="AG18" s="6">
+        <v>0.58499999999999996</v>
+      </c>
     </row>
     <row r="19" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
@@ -2880,88 +2940,91 @@
       <c r="AF19" s="6">
         <v>0.185</v>
       </c>
+      <c r="AG19" s="6">
+        <v>0.20699999999999999</v>
+      </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:33" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28">
         <v>35.799999999999997</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>174.2</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>106.8</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>425.9</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>-62.8</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>112.8</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>45.1</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <v>574.20000000000005</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="28">
         <v>-121.2</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <v>181.3</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="28">
         <v>25.3</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="28">
         <v>717.9</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="28">
         <v>214.1</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="28">
         <v>285.7</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="28">
         <v>158.4</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="28">
         <v>731</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="28">
         <v>-243.3</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="28">
         <v>97.6</v>
       </c>
-      <c r="V21" s="30">
+      <c r="V21" s="29">
         <v>65.8</v>
       </c>
-      <c r="W21" s="30">
+      <c r="W21" s="29">
         <v>1046.3</v>
       </c>
-      <c r="X21" s="30">
+      <c r="X21" s="29">
         <v>45.5</v>
       </c>
-      <c r="Y21" s="30">
+      <c r="Y21" s="29">
         <v>476.7</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="29">
         <v>389.9</v>
       </c>
-      <c r="AA21" s="30">
+      <c r="AA21" s="29">
         <v>1384.1</v>
       </c>
-      <c r="AB21" s="30">
+      <c r="AB21" s="29">
         <v>127.5</v>
       </c>
       <c r="AC21" s="8">
@@ -2978,86 +3041,86 @@
       </c>
     </row>
     <row r="22" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25">
         <v>-34.299999999999997</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>-49.7</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>-72.7</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>-69.099999999999994</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>-68.400000000000006</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>-67.3</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>-78.5</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <v>-68.8</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="25">
         <v>-52.1</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="25">
         <v>-52.6</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="25">
         <v>-66.099999999999994</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="25">
         <v>-58.4</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="25">
         <v>-64.2</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="25">
         <v>-80.3</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R22" s="25">
         <v>-122.5</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="25">
         <v>-127.5</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="25">
         <v>-111.4</v>
       </c>
-      <c r="U22" s="26">
+      <c r="U22" s="25">
         <v>-144.69999999999999</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="26">
         <v>-175.6</v>
       </c>
-      <c r="W22" s="27">
+      <c r="W22" s="26">
         <v>-207</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="26">
         <v>-136.9</v>
       </c>
-      <c r="Y22" s="27">
+      <c r="Y22" s="26">
         <v>-145.5</v>
       </c>
-      <c r="Z22" s="27">
+      <c r="Z22" s="26">
         <v>-162.9</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AA22" s="26">
         <v>-206.5</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AB22" s="26">
         <v>-130.69999999999999</v>
       </c>
-      <c r="AC22" s="27">
+      <c r="AC22" s="26">
         <v>-145.1</v>
       </c>
       <c r="AD22" s="1">
@@ -3071,7 +3134,7 @@
       </c>
     </row>
     <row r="23" spans="2:33" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8">
@@ -3196,17 +3259,17 @@
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B24" s="26"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3351,6 +3414,9 @@
       <c r="AF27" s="6">
         <v>0.02</v>
       </c>
+      <c r="AG27" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
@@ -3377,6 +3443,9 @@
       <c r="AF28" s="6">
         <v>0.04</v>
       </c>
+      <c r="AG28" s="6">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="29" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
@@ -3403,6 +3472,9 @@
       <c r="AF29" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="AG29" s="41" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
@@ -3429,6 +3501,9 @@
       <c r="AF30" s="6">
         <v>0.21</v>
       </c>
+      <c r="AG30" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="31" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
@@ -3455,6 +3530,9 @@
       <c r="AF31" s="6">
         <v>0.16</v>
       </c>
+      <c r="AG31" s="6">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="32" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
@@ -3481,6 +3559,9 @@
       <c r="AF32" s="6">
         <v>-0.02</v>
       </c>
+      <c r="AG32" s="6">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="33" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
@@ -3507,6 +3588,9 @@
       <c r="AF33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AG33" s="6">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="34" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
@@ -3533,9 +3617,12 @@
       <c r="AF34" s="6">
         <v>0.06</v>
       </c>
+      <c r="AG34" s="6">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="35" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
+      <c r="B35" s="25"/>
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.2">
@@ -3570,10 +3657,12 @@
       <c r="AC36" s="12"/>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="12" t="s">
+      <c r="AF36" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AG36" s="13"/>
+      <c r="AG36" s="46" t="s">
+        <v>116</v>
+      </c>
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12"/>
@@ -3582,65 +3671,74 @@
       <c r="AM36" s="12"/>
       <c r="AN36" s="12"/>
       <c r="AO36" s="12"/>
-      <c r="AP36" s="14"/>
+      <c r="AP36" s="13"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="AF37" s="1" t="s">
+      <c r="B37" s="14"/>
+      <c r="AF37" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="AP37" s="16"/>
+      <c r="AG37" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP37" s="15"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="AF38" s="1" t="s">
+      <c r="B38" s="14"/>
+      <c r="AF38" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AG38" s="17"/>
-      <c r="AP38" s="16"/>
-    </row>
-    <row r="39" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="20"/>
+      <c r="AG38" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP38" s="15"/>
+    </row>
+    <row r="39" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG39" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="19"/>
     </row>
     <row r="40" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:42" x14ac:dyDescent="0.2">
@@ -3686,55 +3784,55 @@
       <c r="AF41" s="12"/>
       <c r="AG41" s="12"/>
       <c r="AH41" s="12"/>
-      <c r="AI41" s="14"/>
+      <c r="AI41" s="13"/>
     </row>
     <row r="42" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="AI42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="AI42" s="15"/>
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="AI43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="AI43" s="15"/>
     </row>
     <row r="44" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
-      <c r="AI44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="AI44" s="15"/>
     </row>
     <row r="45" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="19"/>
     </row>
     <row r="46" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:42" x14ac:dyDescent="0.2">
@@ -3826,50 +3924,50 @@
       <c r="AE47" s="12">
         <v>122</v>
       </c>
-      <c r="AF47" s="14">
+      <c r="AF47" s="13">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
-      <c r="AF48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="AF48" s="15"/>
     </row>
     <row r="49" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
-      <c r="AF49" s="16"/>
+      <c r="B49" s="14"/>
+      <c r="AF49" s="15"/>
     </row>
     <row r="50" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="19"/>
     </row>
     <row r="52" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:42" x14ac:dyDescent="0.2">
@@ -3913,537 +4011,537 @@
       <c r="AM53" s="12"/>
       <c r="AN53" s="12"/>
       <c r="AO53" s="12"/>
-      <c r="AP53" s="14"/>
+      <c r="AP53" s="13"/>
     </row>
     <row r="54" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
-      <c r="AP54" s="16"/>
+      <c r="B54" s="14"/>
+      <c r="AP54" s="15"/>
     </row>
     <row r="55" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="33"/>
-      <c r="AM55" s="33"/>
-      <c r="AN55" s="33"/>
-      <c r="AO55" s="33"/>
-      <c r="AP55" s="34"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
+      <c r="AD55" s="49"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="49"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="49"/>
+      <c r="AI55" s="49"/>
+      <c r="AJ55" s="49"/>
+      <c r="AK55" s="49"/>
+      <c r="AL55" s="49"/>
+      <c r="AM55" s="49"/>
+      <c r="AN55" s="49"/>
+      <c r="AO55" s="49"/>
+      <c r="AP55" s="50"/>
     </row>
     <row r="56" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="33"/>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="33"/>
-      <c r="AL56" s="33"/>
-      <c r="AM56" s="33"/>
-      <c r="AN56" s="33"/>
-      <c r="AO56" s="33"/>
-      <c r="AP56" s="34"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="49"/>
+      <c r="AD56" s="49"/>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="49"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="49"/>
+      <c r="AI56" s="49"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="49"/>
+      <c r="AL56" s="49"/>
+      <c r="AM56" s="49"/>
+      <c r="AN56" s="49"/>
+      <c r="AO56" s="49"/>
+      <c r="AP56" s="50"/>
     </row>
     <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
-      <c r="AK57" s="33"/>
-      <c r="AL57" s="33"/>
-      <c r="AM57" s="33"/>
-      <c r="AN57" s="33"/>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="34"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="49"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="49"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="49"/>
+      <c r="AI57" s="49"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="49"/>
+      <c r="AL57" s="49"/>
+      <c r="AM57" s="49"/>
+      <c r="AN57" s="49"/>
+      <c r="AO57" s="49"/>
+      <c r="AP57" s="50"/>
     </row>
     <row r="58" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="33"/>
-      <c r="AK58" s="33"/>
-      <c r="AL58" s="33"/>
-      <c r="AM58" s="33"/>
-      <c r="AN58" s="33"/>
-      <c r="AO58" s="33"/>
-      <c r="AP58" s="34"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="49"/>
+      <c r="AD58" s="49"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="49"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="49"/>
+      <c r="AI58" s="49"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="49"/>
+      <c r="AL58" s="49"/>
+      <c r="AM58" s="49"/>
+      <c r="AN58" s="49"/>
+      <c r="AO58" s="49"/>
+      <c r="AP58" s="50"/>
     </row>
     <row r="59" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="33"/>
-      <c r="AJ59" s="33"/>
-      <c r="AK59" s="33"/>
-      <c r="AL59" s="33"/>
-      <c r="AM59" s="33"/>
-      <c r="AN59" s="33"/>
-      <c r="AO59" s="33"/>
-      <c r="AP59" s="34"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
+      <c r="AD59" s="49"/>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="49"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="49"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="49"/>
+      <c r="AL59" s="49"/>
+      <c r="AM59" s="49"/>
+      <c r="AN59" s="49"/>
+      <c r="AO59" s="49"/>
+      <c r="AP59" s="50"/>
     </row>
     <row r="60" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="33"/>
-      <c r="AJ60" s="33"/>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="33"/>
-      <c r="AM60" s="33"/>
-      <c r="AN60" s="33"/>
-      <c r="AO60" s="33"/>
-      <c r="AP60" s="34"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="49"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
+      <c r="AD60" s="49"/>
+      <c r="AE60" s="49"/>
+      <c r="AF60" s="49"/>
+      <c r="AG60" s="49"/>
+      <c r="AH60" s="49"/>
+      <c r="AI60" s="49"/>
+      <c r="AJ60" s="49"/>
+      <c r="AK60" s="49"/>
+      <c r="AL60" s="49"/>
+      <c r="AM60" s="49"/>
+      <c r="AN60" s="49"/>
+      <c r="AO60" s="49"/>
+      <c r="AP60" s="50"/>
     </row>
     <row r="61" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="33"/>
-      <c r="AJ61" s="33"/>
-      <c r="AK61" s="33"/>
-      <c r="AL61" s="33"/>
-      <c r="AM61" s="33"/>
-      <c r="AN61" s="33"/>
-      <c r="AO61" s="33"/>
-      <c r="AP61" s="34"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="50"/>
     </row>
     <row r="62" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="15"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="33"/>
-      <c r="AI62" s="33"/>
-      <c r="AJ62" s="33"/>
-      <c r="AK62" s="33"/>
-      <c r="AL62" s="33"/>
-      <c r="AM62" s="33"/>
-      <c r="AN62" s="33"/>
-      <c r="AO62" s="33"/>
-      <c r="AP62" s="34"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="49"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="49"/>
+      <c r="AO62" s="49"/>
+      <c r="AP62" s="50"/>
     </row>
     <row r="63" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="15"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="33"/>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="33"/>
-      <c r="AL63" s="33"/>
-      <c r="AM63" s="33"/>
-      <c r="AN63" s="33"/>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="34"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
+      <c r="AL63" s="49"/>
+      <c r="AM63" s="49"/>
+      <c r="AN63" s="49"/>
+      <c r="AO63" s="49"/>
+      <c r="AP63" s="50"/>
     </row>
     <row r="64" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="15"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="33"/>
-      <c r="AH64" s="33"/>
-      <c r="AI64" s="33"/>
-      <c r="AJ64" s="33"/>
-      <c r="AK64" s="33"/>
-      <c r="AL64" s="33"/>
-      <c r="AM64" s="33"/>
-      <c r="AN64" s="33"/>
-      <c r="AO64" s="33"/>
-      <c r="AP64" s="34"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="49"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="49"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="49"/>
+      <c r="AM64" s="49"/>
+      <c r="AN64" s="49"/>
+      <c r="AO64" s="49"/>
+      <c r="AP64" s="50"/>
     </row>
     <row r="65" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
       <c r="AA65" s="8"/>
-      <c r="AP65" s="16"/>
+      <c r="AP65" s="15"/>
     </row>
     <row r="66" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B66" s="15"/>
-      <c r="AP66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="AP66" s="15"/>
     </row>
     <row r="67" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B67" s="15"/>
-      <c r="AP67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="AP67" s="15"/>
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
-      <c r="AP68" s="16"/>
+      <c r="B68" s="14"/>
+      <c r="AP68" s="15"/>
     </row>
     <row r="69" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
-      <c r="AP69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="AP69" s="15"/>
     </row>
     <row r="70" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
-      <c r="AP70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="AP70" s="15"/>
     </row>
     <row r="71" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B71" s="15"/>
-      <c r="AP71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="AP71" s="15"/>
     </row>
     <row r="72" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
-      <c r="AP72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="AP72" s="15"/>
     </row>
     <row r="73" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B73" s="15"/>
-      <c r="AP73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="AP73" s="15"/>
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
-      <c r="AP74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="AP74" s="15"/>
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B75" s="15"/>
-      <c r="AP75" s="16"/>
+      <c r="B75" s="14"/>
+      <c r="AP75" s="15"/>
     </row>
     <row r="76" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B76" s="15"/>
-      <c r="AP76" s="16"/>
+      <c r="B76" s="14"/>
+      <c r="AP76" s="15"/>
     </row>
     <row r="77" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B77" s="15"/>
-      <c r="AP77" s="16"/>
+      <c r="B77" s="14"/>
+      <c r="AP77" s="15"/>
     </row>
     <row r="78" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="19"/>
-      <c r="W78" s="19"/>
-      <c r="X78" s="19"/>
-      <c r="Y78" s="19"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="19"/>
-      <c r="AB78" s="19"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="19"/>
-      <c r="AE78" s="19"/>
-      <c r="AF78" s="19"/>
-      <c r="AG78" s="19"/>
-      <c r="AH78" s="19"/>
-      <c r="AI78" s="19"/>
-      <c r="AJ78" s="19"/>
-      <c r="AK78" s="19"/>
-      <c r="AL78" s="19"/>
-      <c r="AM78" s="19"/>
-      <c r="AN78" s="19"/>
-      <c r="AO78" s="19"/>
-      <c r="AP78" s="20"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
+      <c r="AA78" s="18"/>
+      <c r="AB78" s="18"/>
+      <c r="AC78" s="18"/>
+      <c r="AD78" s="18"/>
+      <c r="AE78" s="18"/>
+      <c r="AF78" s="18"/>
+      <c r="AG78" s="18"/>
+      <c r="AH78" s="18"/>
+      <c r="AI78" s="18"/>
+      <c r="AJ78" s="18"/>
+      <c r="AK78" s="18"/>
+      <c r="AL78" s="18"/>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="18"/>
+      <c r="AO78" s="18"/>
+      <c r="AP78" s="19"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4641,409 +4739,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6AACC-FEA2-4C5B-AF79-59D39A66A975}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="24.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="35">
         <v>5.27</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="35">
         <v>0.19700000000000001</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="36">
         <v>0.36919999999999997</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="36">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="37">
         <v>16.5</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="37">
         <v>15.18</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>8.94</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="37">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>5.03</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <v>0.53</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>0.63200000000000001</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>9.4</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>5.6</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <v>0.91</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>15.16</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>0.88</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="38">
         <v>0.41399999999999998</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="32">
         <v>8.4</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>9.1</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>6.2</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>0.47</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="32">
         <v>6.49</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.41</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="38">
         <v>0.61099999999999999</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>19.5</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>14.7</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>9.4</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>1.18</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="32">
         <v>5.68</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.45</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>0.35299999999999998</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <v>16.3</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>15.5</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="32">
         <v>11</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <v>1.24</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="32">
         <v>1.23</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>0.2</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>0.59</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>12.9</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>13.6</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>9.6</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="32">
         <v>10.75</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.81</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="32">
         <v>13.3</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="32">
         <v>13.3</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="32">
         <v>7.9</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="32">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="32">
         <v>6.96</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>0.27</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>0.41310000000000002</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="38">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="32">
         <v>9.51</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="32">
         <v>8.9499999999999993</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="32">
         <v>7.71</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>0.46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="32">
         <v>2.11</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="32">
         <v>0.17</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>0.40350000000000003</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="32">
         <v>19.72</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="32">
         <v>20.399999999999999</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="32">
         <v>16.899999999999999</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="32">
         <v>2.72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="32">
         <v>24.71</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>1.05</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>0.52590000000000003</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="32">
         <v>23.13</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="32">
         <v>18.600000000000001</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="32">
         <v>8.2799999999999994</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="32">
         <v>0.98</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Retail Brands/LULU_MODEL.xlsx
+++ b/Retail Brands/LULU_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED56947-C5D3-4667-9DDD-2A1B685F8F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393B81C-86DC-4C89-91F3-C1E7DAB22D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="7140" yWindow="2280" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex:</t>
         </r>
@@ -96,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -111,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex:</t>
         </r>
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Impairment of asset
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
   <si>
     <t>Price</t>
   </si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>One of the least levered names in discretionary retail</t>
-  </si>
-  <si>
-    <t>Q52025</t>
   </si>
   <si>
     <t>Beginning</t>
@@ -502,13 +499,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -586,19 +589,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <i/>
@@ -719,81 +709,82 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1133,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1169,7 @@
       <c r="B5" s="1">
         <v>121</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1318,28 +1309,28 @@
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>57</v>
@@ -3394,7 +3385,7 @@
     </row>
     <row r="27" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA27" s="6">
         <v>0.09</v>
@@ -3420,13 +3411,13 @@
     </row>
     <row r="28" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>45</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB28" s="6">
         <v>0.11</v>
@@ -3449,7 +3440,7 @@
     </row>
     <row r="29" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z29" s="6" t="s">
         <v>45</v>
@@ -3478,7 +3469,7 @@
     </row>
     <row r="30" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z30" s="6" t="s">
         <v>45</v>
@@ -3507,7 +3498,7 @@
     </row>
     <row r="31" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z31" s="6" t="s">
         <v>45</v>
@@ -3536,7 +3527,7 @@
     </row>
     <row r="32" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z32" s="6" t="s">
         <v>45</v>
@@ -3565,7 +3556,7 @@
     </row>
     <row r="33" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z33" s="6" t="s">
         <v>45</v>
@@ -3594,7 +3585,7 @@
     </row>
     <row r="34" spans="2:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z34" s="6" t="s">
         <v>45</v>
@@ -3658,10 +3649,10 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG36" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
@@ -3676,20 +3667,20 @@
     <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="AF37" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG37" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP37" s="15"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="AF38" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG38" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP38" s="15"/>
     </row>
@@ -3725,10 +3716,10 @@
       <c r="AD39" s="18"/>
       <c r="AE39" s="18"/>
       <c r="AF39" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG39" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH39" s="18"/>
       <c r="AI39" s="18"/>
@@ -3837,7 +3828,7 @@
     <row r="46" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -4019,433 +4010,433 @@
     </row>
     <row r="55" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="14"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
-      <c r="AF55" s="49"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="49"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="49"/>
-      <c r="AL55" s="49"/>
-      <c r="AM55" s="49"/>
-      <c r="AN55" s="49"/>
-      <c r="AO55" s="49"/>
-      <c r="AP55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="50"/>
+      <c r="AL55" s="50"/>
+      <c r="AM55" s="50"/>
+      <c r="AN55" s="50"/>
+      <c r="AO55" s="50"/>
+      <c r="AP55" s="51"/>
     </row>
     <row r="56" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="49"/>
-      <c r="AD56" s="49"/>
-      <c r="AE56" s="49"/>
-      <c r="AF56" s="49"/>
-      <c r="AG56" s="49"/>
-      <c r="AH56" s="49"/>
-      <c r="AI56" s="49"/>
-      <c r="AJ56" s="49"/>
-      <c r="AK56" s="49"/>
-      <c r="AL56" s="49"/>
-      <c r="AM56" s="49"/>
-      <c r="AN56" s="49"/>
-      <c r="AO56" s="49"/>
-      <c r="AP56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50"/>
+      <c r="AF56" s="50"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="50"/>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="50"/>
+      <c r="AL56" s="50"/>
+      <c r="AM56" s="50"/>
+      <c r="AN56" s="50"/>
+      <c r="AO56" s="50"/>
+      <c r="AP56" s="51"/>
     </row>
     <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="14"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="49"/>
-      <c r="AC57" s="49"/>
-      <c r="AD57" s="49"/>
-      <c r="AE57" s="49"/>
-      <c r="AF57" s="49"/>
-      <c r="AG57" s="49"/>
-      <c r="AH57" s="49"/>
-      <c r="AI57" s="49"/>
-      <c r="AJ57" s="49"/>
-      <c r="AK57" s="49"/>
-      <c r="AL57" s="49"/>
-      <c r="AM57" s="49"/>
-      <c r="AN57" s="49"/>
-      <c r="AO57" s="49"/>
-      <c r="AP57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="50"/>
+      <c r="AL57" s="50"/>
+      <c r="AM57" s="50"/>
+      <c r="AN57" s="50"/>
+      <c r="AO57" s="50"/>
+      <c r="AP57" s="51"/>
     </row>
     <row r="58" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="14"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="49"/>
-      <c r="W58" s="49"/>
-      <c r="X58" s="49"/>
-      <c r="Y58" s="49"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="49"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="49"/>
-      <c r="AI58" s="49"/>
-      <c r="AJ58" s="49"/>
-      <c r="AK58" s="49"/>
-      <c r="AL58" s="49"/>
-      <c r="AM58" s="49"/>
-      <c r="AN58" s="49"/>
-      <c r="AO58" s="49"/>
-      <c r="AP58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="50"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="50"/>
+      <c r="AL58" s="50"/>
+      <c r="AM58" s="50"/>
+      <c r="AN58" s="50"/>
+      <c r="AO58" s="50"/>
+      <c r="AP58" s="51"/>
     </row>
     <row r="59" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="14"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="49"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="49"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
-      <c r="AL59" s="49"/>
-      <c r="AM59" s="49"/>
-      <c r="AN59" s="49"/>
-      <c r="AO59" s="49"/>
-      <c r="AP59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="50"/>
+      <c r="X59" s="50"/>
+      <c r="Y59" s="50"/>
+      <c r="Z59" s="50"/>
+      <c r="AA59" s="50"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="50"/>
+      <c r="AD59" s="50"/>
+      <c r="AE59" s="50"/>
+      <c r="AF59" s="50"/>
+      <c r="AG59" s="50"/>
+      <c r="AH59" s="50"/>
+      <c r="AI59" s="50"/>
+      <c r="AJ59" s="50"/>
+      <c r="AK59" s="50"/>
+      <c r="AL59" s="50"/>
+      <c r="AM59" s="50"/>
+      <c r="AN59" s="50"/>
+      <c r="AO59" s="50"/>
+      <c r="AP59" s="51"/>
     </row>
     <row r="60" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="14"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="49"/>
-      <c r="V60" s="49"/>
-      <c r="W60" s="49"/>
-      <c r="X60" s="49"/>
-      <c r="Y60" s="49"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="49"/>
-      <c r="AB60" s="49"/>
-      <c r="AC60" s="49"/>
-      <c r="AD60" s="49"/>
-      <c r="AE60" s="49"/>
-      <c r="AF60" s="49"/>
-      <c r="AG60" s="49"/>
-      <c r="AH60" s="49"/>
-      <c r="AI60" s="49"/>
-      <c r="AJ60" s="49"/>
-      <c r="AK60" s="49"/>
-      <c r="AL60" s="49"/>
-      <c r="AM60" s="49"/>
-      <c r="AN60" s="49"/>
-      <c r="AO60" s="49"/>
-      <c r="AP60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="50"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="50"/>
+      <c r="AF60" s="50"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="50"/>
+      <c r="AI60" s="50"/>
+      <c r="AJ60" s="50"/>
+      <c r="AK60" s="50"/>
+      <c r="AL60" s="50"/>
+      <c r="AM60" s="50"/>
+      <c r="AN60" s="50"/>
+      <c r="AO60" s="50"/>
+      <c r="AP60" s="51"/>
     </row>
     <row r="61" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="14"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="49"/>
-      <c r="AD61" s="49"/>
-      <c r="AE61" s="49"/>
-      <c r="AF61" s="49"/>
-      <c r="AG61" s="49"/>
-      <c r="AH61" s="49"/>
-      <c r="AI61" s="49"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="49"/>
-      <c r="AL61" s="49"/>
-      <c r="AM61" s="49"/>
-      <c r="AN61" s="49"/>
-      <c r="AO61" s="49"/>
-      <c r="AP61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="50"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="50"/>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="50"/>
+      <c r="AL61" s="50"/>
+      <c r="AM61" s="50"/>
+      <c r="AN61" s="50"/>
+      <c r="AO61" s="50"/>
+      <c r="AP61" s="51"/>
     </row>
     <row r="62" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="14"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="49"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="49"/>
-      <c r="AC62" s="49"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="49"/>
-      <c r="AH62" s="49"/>
-      <c r="AI62" s="49"/>
-      <c r="AJ62" s="49"/>
-      <c r="AK62" s="49"/>
-      <c r="AL62" s="49"/>
-      <c r="AM62" s="49"/>
-      <c r="AN62" s="49"/>
-      <c r="AO62" s="49"/>
-      <c r="AP62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="50"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="50"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="50"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="50"/>
+      <c r="AN62" s="50"/>
+      <c r="AO62" s="50"/>
+      <c r="AP62" s="51"/>
     </row>
     <row r="63" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="14"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="49"/>
-      <c r="AI63" s="49"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="49"/>
-      <c r="AL63" s="49"/>
-      <c r="AM63" s="49"/>
-      <c r="AN63" s="49"/>
-      <c r="AO63" s="49"/>
-      <c r="AP63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="50"/>
+      <c r="X63" s="50"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="50"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="50"/>
+      <c r="AF63" s="50"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="50"/>
+      <c r="AJ63" s="50"/>
+      <c r="AK63" s="50"/>
+      <c r="AL63" s="50"/>
+      <c r="AM63" s="50"/>
+      <c r="AN63" s="50"/>
+      <c r="AO63" s="50"/>
+      <c r="AP63" s="51"/>
     </row>
     <row r="64" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="14"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="49"/>
-      <c r="AI64" s="49"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="49"/>
-      <c r="AN64" s="49"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="50"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="50"/>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="50"/>
+      <c r="AJ64" s="50"/>
+      <c r="AK64" s="50"/>
+      <c r="AL64" s="50"/>
+      <c r="AM64" s="50"/>
+      <c r="AN64" s="50"/>
+      <c r="AO64" s="50"/>
+      <c r="AP64" s="51"/>
     </row>
     <row r="65" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
@@ -4630,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D091CCF-214C-4799-9BEE-D3FB22B6975A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4646,16 +4637,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4713,8 +4704,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>86</v>
+      <c r="A5" s="52" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>767</v>
@@ -5004,7 +4995,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="32">
         <v>6.96</v>
@@ -5033,7 +5024,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="32">
         <v>2.11</v>
@@ -5062,7 +5053,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="32">
         <v>24.71</v>
@@ -5149,15 +5140,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -5301,6 +5283,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5308,14 +5299,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5329,6 +5312,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
